--- a/list.xlsx
+++ b/list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
   <si>
     <t>동부103-802</t>
   </si>
@@ -46,7 +46,7 @@
     <t>IMG_0163.jpg</t>
   </si>
   <si>
-    <t>형제카센터</t>
+    <t>형제모터스</t>
   </si>
   <si>
     <t>남부순환로5길11</t>
@@ -247,13 +247,13 @@
     <t>IMG_0083.jpg</t>
   </si>
   <si>
-    <t>세븐일레븐 옆우편함</t>
+    <t xml:space="preserve">세븐일레븐(송정로 10) 옆우편함 </t>
   </si>
   <si>
     <t>IMG_0179.jpg</t>
   </si>
   <si>
-    <t>혜인다방</t>
+    <t>혜인다방(방화대로 7길 63)</t>
   </si>
   <si>
     <t>IMG_0085.jpg</t>
@@ -286,7 +286,7 @@
     <t>IMG_0094.jpg</t>
   </si>
   <si>
-    <t>공항동673-7(방화대로 7길 5다길) 4층401호</t>
+    <t>공항동673-7(방화대로 7길 5다길) 4층 401호</t>
   </si>
   <si>
     <t>IMG_0345.jpeg</t>
@@ -319,7 +319,7 @@
     <t>IMG_0106.jpg</t>
   </si>
   <si>
-    <t>드리미타운 방화대로5다길 34-13</t>
+    <t>드리미타운 방화대로5다길 34-13 602</t>
   </si>
   <si>
     <t>301-52 2층</t>
@@ -409,10 +409,16 @@
     <t xml:space="preserve">방화대로6바길 15-18 1층 </t>
   </si>
   <si>
+    <t>IMG_1049.jpg</t>
+  </si>
+  <si>
     <t>셔터</t>
   </si>
   <si>
     <t>흥왕교회</t>
+  </si>
+  <si>
+    <t>IMG_0145.jpg</t>
   </si>
   <si>
     <t>방화대로6바길 11-21</t>
@@ -2667,14 +2673,16 @@
       <c r="C59" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="D59" t="s" s="6">
+        <v>132</v>
+      </c>
       <c r="E59" t="s" s="6">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" ht="13.65" customHeight="1">
       <c r="A60" t="s" s="6">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>9</v>
@@ -2682,12 +2690,14 @@
       <c r="C60" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="D60" s="4"/>
+      <c r="D60" t="s" s="6">
+        <v>135</v>
+      </c>
       <c r="E60" s="4"/>
     </row>
     <row r="61" ht="13.65" customHeight="1">
       <c r="A61" t="s" s="6">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>9</v>
@@ -2696,13 +2706,13 @@
         <v>2</v>
       </c>
       <c r="D61" t="s" s="6">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" ht="13.65" customHeight="1">
       <c r="A62" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>9</v>
@@ -2711,13 +2721,13 @@
         <v>6</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E62" s="4"/>
     </row>
     <row r="63" ht="11.7" customHeight="1">
       <c r="A63" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>9</v>
@@ -2726,7 +2736,7 @@
         <v>4</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E63" t="s" s="2">
         <v>14</v>
@@ -2734,7 +2744,7 @@
     </row>
     <row r="64" ht="13.65" customHeight="1">
       <c r="A64" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>9</v>
@@ -2743,28 +2753,28 @@
         <v>6</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E64" s="4"/>
     </row>
     <row r="65" ht="13.65" customHeight="1">
       <c r="A65" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>9</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E65" s="4"/>
     </row>
     <row r="66" ht="13.65" customHeight="1">
       <c r="A66" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>9</v>
@@ -2773,13 +2783,13 @@
         <v>4</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E66" s="4"/>
     </row>
     <row r="67" ht="13.65" customHeight="1">
       <c r="A67" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>9</v>
@@ -2788,13 +2798,13 @@
         <v>4</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E67" s="4"/>
     </row>
     <row r="68" ht="13.65" customHeight="1">
       <c r="A68" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>9</v>
@@ -2803,13 +2813,13 @@
         <v>4</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E68" s="4"/>
     </row>
     <row r="69" ht="13.65" customHeight="1">
       <c r="A69" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>1</v>
@@ -2822,7 +2832,7 @@
     </row>
     <row r="70" ht="13.65" customHeight="1">
       <c r="A70" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>1</v>
@@ -2835,7 +2845,7 @@
     </row>
     <row r="71" ht="13.65" customHeight="1">
       <c r="A71" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>1</v>
@@ -2848,7 +2858,7 @@
     </row>
     <row r="72" ht="13.65" customHeight="1">
       <c r="A72" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>1</v>
@@ -2861,7 +2871,7 @@
     </row>
     <row r="73" ht="13.65" customHeight="1">
       <c r="A73" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>1</v>
@@ -2874,7 +2884,7 @@
     </row>
     <row r="74" ht="13.65" customHeight="1">
       <c r="A74" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>1</v>
@@ -2887,7 +2897,7 @@
     </row>
     <row r="75" ht="13.65" customHeight="1">
       <c r="A75" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>1</v>
@@ -2900,7 +2910,7 @@
     </row>
     <row r="76" ht="13.65" customHeight="1">
       <c r="A76" t="s" s="6">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>1</v>
@@ -2913,7 +2923,7 @@
     </row>
     <row r="77" ht="13.65" customHeight="1">
       <c r="A77" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>1</v>
@@ -2926,7 +2936,7 @@
     </row>
     <row r="78" ht="13.65" customHeight="1">
       <c r="A78" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>1</v>
@@ -2939,7 +2949,7 @@
     </row>
     <row r="79" ht="13.65" customHeight="1">
       <c r="A79" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>1</v>
@@ -2952,7 +2962,7 @@
     </row>
     <row r="80" ht="13.65" customHeight="1">
       <c r="A80" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>1</v>
@@ -2965,7 +2975,7 @@
     </row>
     <row r="81" ht="13.65" customHeight="1">
       <c r="A81" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>1</v>
@@ -2978,7 +2988,7 @@
     </row>
     <row r="82" ht="13.65" customHeight="1">
       <c r="A82" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>1</v>
@@ -2991,7 +3001,7 @@
     </row>
     <row r="83" ht="13.65" customHeight="1">
       <c r="A83" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>1</v>
@@ -3004,7 +3014,7 @@
     </row>
     <row r="84" ht="13.65" customHeight="1">
       <c r="A84" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>1</v>
@@ -3017,7 +3027,7 @@
     </row>
     <row r="85" ht="13.65" customHeight="1">
       <c r="A85" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>1</v>
@@ -3030,7 +3040,7 @@
     </row>
     <row r="86" ht="13.65" customHeight="1">
       <c r="A86" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>1</v>
@@ -3043,7 +3053,7 @@
     </row>
     <row r="87" ht="13.65" customHeight="1">
       <c r="A87" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>1</v>
@@ -3056,7 +3066,7 @@
     </row>
     <row r="88" ht="13.65" customHeight="1">
       <c r="A88" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>1</v>
@@ -3069,7 +3079,7 @@
     </row>
     <row r="89" ht="13.65" customHeight="1">
       <c r="A89" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>1</v>
@@ -3082,7 +3092,7 @@
     </row>
     <row r="90" ht="13.65" customHeight="1">
       <c r="A90" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>1</v>
@@ -3095,7 +3105,7 @@
     </row>
     <row r="91" ht="13.65" customHeight="1">
       <c r="A91" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>1</v>
@@ -3108,7 +3118,7 @@
     </row>
     <row r="92" ht="13.65" customHeight="1">
       <c r="A92" t="s" s="6">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>1</v>
@@ -3121,7 +3131,7 @@
     </row>
     <row r="93" ht="13.65" customHeight="1">
       <c r="A93" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>1</v>
@@ -3134,7 +3144,7 @@
     </row>
     <row r="94" ht="13.65" customHeight="1">
       <c r="A94" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>1</v>
@@ -3147,7 +3157,7 @@
     </row>
     <row r="95" ht="13.65" customHeight="1">
       <c r="A95" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>1</v>
@@ -3160,7 +3170,7 @@
     </row>
     <row r="96" ht="13.65" customHeight="1">
       <c r="A96" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>1</v>
@@ -3173,7 +3183,7 @@
     </row>
     <row r="97" ht="13.65" customHeight="1">
       <c r="A97" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>1</v>
@@ -3186,7 +3196,7 @@
     </row>
     <row r="98" ht="13.65" customHeight="1">
       <c r="A98" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>1</v>
@@ -3199,7 +3209,7 @@
     </row>
     <row r="99" ht="13.65" customHeight="1">
       <c r="A99" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>1</v>
@@ -3212,7 +3222,7 @@
     </row>
     <row r="100" ht="13.65" customHeight="1">
       <c r="A100" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>1</v>

--- a/list.xlsx
+++ b/list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
   <si>
     <t>동부103-802</t>
   </si>
@@ -22,7 +22,7 @@
     <t>중앙일보,스포츠한국</t>
   </si>
   <si>
-    <t>동부102-905</t>
+    <t>동부103-905</t>
   </si>
   <si>
     <t>중앙일보</t>
@@ -49,6 +49,9 @@
     <t>형제모터스</t>
   </si>
   <si>
+    <t>IMG_1124.jpg</t>
+  </si>
+  <si>
     <t>남부순환로5길11</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
     <t>에버하우스102동 501호</t>
   </si>
   <si>
+    <t>IMG_1123.jpg</t>
+  </si>
+  <si>
     <t>비밀번호 열쇠 2530 열쇠</t>
   </si>
   <si>
@@ -214,6 +220,9 @@
     <t>공항대로 4가길 13-5 빌라 304</t>
   </si>
   <si>
+    <t>IMG_1126.jpg</t>
+  </si>
+  <si>
     <t>종 9004</t>
   </si>
   <si>
@@ -226,7 +235,7 @@
     <t>청도맨션공항대로8길27-15 102호</t>
   </si>
   <si>
-    <t>IMG_0370.png</t>
+    <t>IMG_1127.jpg</t>
   </si>
   <si>
     <t>공항대로8가길8-7</t>
@@ -320,6 +329,9 @@
   </si>
   <si>
     <t>드리미타운 방화대로5다길 34-13 602</t>
+  </si>
+  <si>
+    <t>IMG_1128.jpg</t>
   </si>
   <si>
     <t>301-52 2층</t>
@@ -1827,12 +1839,14 @@
       <c r="C5" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" t="s" s="2">
+        <v>12</v>
+      </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="11.7" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>9</v>
@@ -1841,15 +1855,15 @@
         <v>4</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>9</v>
@@ -1858,13 +1872,13 @@
         <v>4</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="11.7" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>9</v>
@@ -1873,15 +1887,15 @@
         <v>4</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>9</v>
@@ -1890,13 +1904,13 @@
         <v>4</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>9</v>
@@ -1905,13 +1919,13 @@
         <v>4</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="11.7" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>9</v>
@@ -1920,24 +1934,24 @@
         <v>2</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" ht="11.7" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>9</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s" s="2">
         <v>7</v>
@@ -1945,7 +1959,7 @@
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>9</v>
@@ -1954,13 +1968,13 @@
         <v>2</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" ht="13.65" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>9</v>
@@ -1969,13 +1983,13 @@
         <v>2</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" ht="13.65" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>9</v>
@@ -1984,13 +1998,13 @@
         <v>4</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" ht="11.7" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>9</v>
@@ -1999,15 +2013,15 @@
         <v>4</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" ht="11.7" customHeight="1">
       <c r="A17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>9</v>
@@ -2016,15 +2030,15 @@
         <v>4</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" ht="13.65" customHeight="1">
       <c r="A18" t="s" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>9</v>
@@ -2032,14 +2046,16 @@
       <c r="C18" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" t="s" s="6">
+        <v>42</v>
+      </c>
       <c r="E18" t="s" s="6">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" ht="13.65" customHeight="1">
       <c r="A19" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>9</v>
@@ -2048,45 +2064,45 @@
         <v>6</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" ht="13.65" customHeight="1">
       <c r="A20" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>9</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" ht="11.7" customHeight="1">
       <c r="A21" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>9</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" ht="11.7" customHeight="1">
       <c r="A22" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>9</v>
@@ -2095,15 +2111,15 @@
         <v>6</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" ht="13.65" customHeight="1">
       <c r="A23" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>9</v>
@@ -2112,28 +2128,28 @@
         <v>4</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" ht="13.65" customHeight="1">
       <c r="A24" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>9</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" ht="13.65" customHeight="1">
       <c r="A25" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>9</v>
@@ -2142,13 +2158,13 @@
         <v>2</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" ht="13.65" customHeight="1">
       <c r="A26" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>9</v>
@@ -2157,13 +2173,13 @@
         <v>2</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>9</v>
@@ -2172,13 +2188,13 @@
         <v>2</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" ht="11.7" customHeight="1">
       <c r="A28" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>9</v>
@@ -2187,7 +2203,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s" s="2">
         <v>7</v>
@@ -2195,7 +2211,7 @@
     </row>
     <row r="29" ht="13.65" customHeight="1">
       <c r="A29" t="s" s="6">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>9</v>
@@ -2203,14 +2219,16 @@
       <c r="C29" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" t="s" s="6">
+        <v>69</v>
+      </c>
       <c r="E29" t="s" s="6">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" ht="13.65" customHeight="1">
       <c r="A30" t="s" s="6">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>9</v>
@@ -2219,13 +2237,13 @@
         <v>6</v>
       </c>
       <c r="D30" t="s" s="6">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" ht="13.65" customHeight="1">
       <c r="A31" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>9</v>
@@ -2234,13 +2252,13 @@
         <v>2</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" ht="13.65" customHeight="1">
       <c r="A32" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>9</v>
@@ -2249,13 +2267,13 @@
         <v>4</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>9</v>
@@ -2264,13 +2282,13 @@
         <v>4</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>9</v>
@@ -2279,13 +2297,13 @@
         <v>4</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>9</v>
@@ -2294,13 +2312,13 @@
         <v>6</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" ht="11.7" customHeight="1">
       <c r="A36" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>9</v>
@@ -2309,15 +2327,15 @@
         <v>2</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" ht="11.7" customHeight="1">
       <c r="A37" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>9</v>
@@ -2326,15 +2344,15 @@
         <v>6</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" ht="11.7" customHeight="1">
       <c r="A38" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>9</v>
@@ -2343,15 +2361,15 @@
         <v>4</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" ht="13.65" customHeight="1">
       <c r="A39" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>9</v>
@@ -2360,13 +2378,13 @@
         <v>4</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E39" s="4"/>
     </row>
     <row r="40" ht="11.7" customHeight="1">
       <c r="A40" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>9</v>
@@ -2375,15 +2393,15 @@
         <v>6</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>9</v>
@@ -2392,13 +2410,13 @@
         <v>4</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E41" s="3"/>
     </row>
     <row r="42" ht="11.7" customHeight="1">
       <c r="A42" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>9</v>
@@ -2407,15 +2425,15 @@
         <v>4</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" ht="13.65" customHeight="1">
       <c r="A43" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>9</v>
@@ -2424,13 +2442,13 @@
         <v>2</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" ht="11.7" customHeight="1">
       <c r="A44" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>9</v>
@@ -2439,7 +2457,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E44" t="s" s="2">
         <v>7</v>
@@ -2447,7 +2465,7 @@
     </row>
     <row r="45" ht="13.65" customHeight="1">
       <c r="A45" t="s" s="6">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>9</v>
@@ -2455,14 +2473,16 @@
       <c r="C45" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" t="s" s="6">
+        <v>106</v>
+      </c>
       <c r="E45" t="s" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" ht="13.65" customHeight="1">
       <c r="A46" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>9</v>
@@ -2471,13 +2491,13 @@
         <v>4</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E46" s="4"/>
     </row>
     <row r="47" ht="13.65" customHeight="1">
       <c r="A47" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>9</v>
@@ -2486,13 +2506,13 @@
         <v>4</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E47" s="4"/>
     </row>
     <row r="48" ht="13.65" customHeight="1">
       <c r="A48" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>9</v>
@@ -2501,30 +2521,30 @@
         <v>2</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E48" s="4"/>
     </row>
     <row r="49" ht="11.7" customHeight="1">
       <c r="A49" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>9</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" ht="11.7" customHeight="1">
       <c r="A50" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>9</v>
@@ -2533,15 +2553,15 @@
         <v>4</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>9</v>
@@ -2550,13 +2570,13 @@
         <v>4</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E51" s="3"/>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>9</v>
@@ -2565,13 +2585,13 @@
         <v>4</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E52" s="3"/>
     </row>
     <row r="53" ht="11.7" customHeight="1">
       <c r="A53" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>9</v>
@@ -2580,15 +2600,15 @@
         <v>6</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>9</v>
@@ -2597,13 +2617,13 @@
         <v>4</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E54" s="3"/>
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>9</v>
@@ -2612,28 +2632,28 @@
         <v>4</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" ht="13.65" customHeight="1">
       <c r="A56" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>9</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E56" s="4"/>
     </row>
     <row r="57" ht="13.65" customHeight="1">
       <c r="A57" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>9</v>
@@ -2642,13 +2662,13 @@
         <v>2</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" ht="11.7" customHeight="1">
       <c r="A58" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>9</v>
@@ -2657,15 +2677,15 @@
         <v>4</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" ht="13.65" customHeight="1">
       <c r="A59" t="s" s="6">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>9</v>
@@ -2674,15 +2694,15 @@
         <v>2</v>
       </c>
       <c r="D59" t="s" s="6">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E59" t="s" s="6">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" ht="13.65" customHeight="1">
       <c r="A60" t="s" s="6">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>9</v>
@@ -2691,13 +2711,13 @@
         <v>4</v>
       </c>
       <c r="D60" t="s" s="6">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E60" s="4"/>
     </row>
     <row r="61" ht="13.65" customHeight="1">
       <c r="A61" t="s" s="6">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>9</v>
@@ -2706,13 +2726,13 @@
         <v>2</v>
       </c>
       <c r="D61" t="s" s="6">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" ht="13.65" customHeight="1">
       <c r="A62" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>9</v>
@@ -2721,13 +2741,13 @@
         <v>6</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E62" s="4"/>
     </row>
     <row r="63" ht="11.7" customHeight="1">
       <c r="A63" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>9</v>
@@ -2736,15 +2756,15 @@
         <v>4</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" ht="13.65" customHeight="1">
       <c r="A64" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>9</v>
@@ -2753,28 +2773,28 @@
         <v>6</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E64" s="4"/>
     </row>
     <row r="65" ht="13.65" customHeight="1">
       <c r="A65" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>9</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E65" s="4"/>
     </row>
     <row r="66" ht="13.65" customHeight="1">
       <c r="A66" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>9</v>
@@ -2783,13 +2803,13 @@
         <v>4</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E66" s="4"/>
     </row>
     <row r="67" ht="13.65" customHeight="1">
       <c r="A67" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>9</v>
@@ -2798,13 +2818,13 @@
         <v>4</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E67" s="4"/>
     </row>
     <row r="68" ht="13.65" customHeight="1">
       <c r="A68" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>9</v>
@@ -2813,13 +2833,13 @@
         <v>4</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E68" s="4"/>
     </row>
     <row r="69" ht="13.65" customHeight="1">
       <c r="A69" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>1</v>
@@ -2832,7 +2852,7 @@
     </row>
     <row r="70" ht="13.65" customHeight="1">
       <c r="A70" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>1</v>
@@ -2845,7 +2865,7 @@
     </row>
     <row r="71" ht="13.65" customHeight="1">
       <c r="A71" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>1</v>
@@ -2858,7 +2878,7 @@
     </row>
     <row r="72" ht="13.65" customHeight="1">
       <c r="A72" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>1</v>
@@ -2871,7 +2891,7 @@
     </row>
     <row r="73" ht="13.65" customHeight="1">
       <c r="A73" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>1</v>
@@ -2884,7 +2904,7 @@
     </row>
     <row r="74" ht="13.65" customHeight="1">
       <c r="A74" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>1</v>
@@ -2897,7 +2917,7 @@
     </row>
     <row r="75" ht="13.65" customHeight="1">
       <c r="A75" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>1</v>
@@ -2910,7 +2930,7 @@
     </row>
     <row r="76" ht="13.65" customHeight="1">
       <c r="A76" t="s" s="6">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>1</v>
@@ -2923,7 +2943,7 @@
     </row>
     <row r="77" ht="13.65" customHeight="1">
       <c r="A77" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>1</v>
@@ -2936,7 +2956,7 @@
     </row>
     <row r="78" ht="13.65" customHeight="1">
       <c r="A78" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>1</v>
@@ -2949,7 +2969,7 @@
     </row>
     <row r="79" ht="13.65" customHeight="1">
       <c r="A79" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>1</v>
@@ -2962,7 +2982,7 @@
     </row>
     <row r="80" ht="13.65" customHeight="1">
       <c r="A80" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>1</v>
@@ -2975,7 +2995,7 @@
     </row>
     <row r="81" ht="13.65" customHeight="1">
       <c r="A81" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>1</v>
@@ -2988,7 +3008,7 @@
     </row>
     <row r="82" ht="13.65" customHeight="1">
       <c r="A82" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>1</v>
@@ -3001,7 +3021,7 @@
     </row>
     <row r="83" ht="13.65" customHeight="1">
       <c r="A83" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>1</v>
@@ -3014,7 +3034,7 @@
     </row>
     <row r="84" ht="13.65" customHeight="1">
       <c r="A84" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>1</v>
@@ -3027,7 +3047,7 @@
     </row>
     <row r="85" ht="13.65" customHeight="1">
       <c r="A85" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>1</v>
@@ -3040,7 +3060,7 @@
     </row>
     <row r="86" ht="13.65" customHeight="1">
       <c r="A86" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>1</v>
@@ -3053,7 +3073,7 @@
     </row>
     <row r="87" ht="13.65" customHeight="1">
       <c r="A87" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>1</v>
@@ -3066,7 +3086,7 @@
     </row>
     <row r="88" ht="13.65" customHeight="1">
       <c r="A88" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>1</v>
@@ -3079,7 +3099,7 @@
     </row>
     <row r="89" ht="13.65" customHeight="1">
       <c r="A89" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>1</v>
@@ -3092,7 +3112,7 @@
     </row>
     <row r="90" ht="13.65" customHeight="1">
       <c r="A90" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>1</v>
@@ -3105,7 +3125,7 @@
     </row>
     <row r="91" ht="13.65" customHeight="1">
       <c r="A91" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>1</v>
@@ -3118,7 +3138,7 @@
     </row>
     <row r="92" ht="13.65" customHeight="1">
       <c r="A92" t="s" s="6">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>1</v>
@@ -3131,7 +3151,7 @@
     </row>
     <row r="93" ht="13.65" customHeight="1">
       <c r="A93" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>1</v>
@@ -3144,7 +3164,7 @@
     </row>
     <row r="94" ht="13.65" customHeight="1">
       <c r="A94" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>1</v>
@@ -3157,7 +3177,7 @@
     </row>
     <row r="95" ht="13.65" customHeight="1">
       <c r="A95" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>1</v>
@@ -3170,7 +3190,7 @@
     </row>
     <row r="96" ht="13.65" customHeight="1">
       <c r="A96" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>1</v>
@@ -3183,7 +3203,7 @@
     </row>
     <row r="97" ht="13.65" customHeight="1">
       <c r="A97" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>1</v>
@@ -3196,7 +3216,7 @@
     </row>
     <row r="98" ht="13.65" customHeight="1">
       <c r="A98" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>1</v>
@@ -3209,7 +3229,7 @@
     </row>
     <row r="99" ht="13.65" customHeight="1">
       <c r="A99" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>1</v>
@@ -3222,7 +3242,7 @@
     </row>
     <row r="100" ht="13.65" customHeight="1">
       <c r="A100" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>1</v>

--- a/list.xlsx
+++ b/list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
   <si>
     <t>동부103-802</t>
   </si>
@@ -226,24 +226,12 @@
     <t>종 9004</t>
   </si>
   <si>
-    <t>공항대로 10가길 18 2층</t>
-  </si>
-  <si>
-    <t>IMG_1042.jpg</t>
-  </si>
-  <si>
     <t>청도맨션공항대로8길27-15 102호</t>
   </si>
   <si>
     <t>IMG_1127.jpg</t>
   </si>
   <si>
-    <t>공항대로8가길8-7</t>
-  </si>
-  <si>
-    <t>IMG_0076.jpg</t>
-  </si>
-  <si>
     <t>미성주택201</t>
   </si>
   <si>
@@ -256,12 +244,6 @@
     <t>IMG_0083.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">세븐일레븐(송정로 10) 옆우편함 </t>
-  </si>
-  <si>
-    <t>IMG_0179.jpg</t>
-  </si>
-  <si>
     <t>혜인다방(방화대로 7길 63)</t>
   </si>
   <si>
@@ -346,6 +328,12 @@
     <t>IMG_0110.jpg</t>
   </si>
   <si>
+    <t>크로바B(654-2) 401</t>
+  </si>
+  <si>
+    <t>영자신문</t>
+  </si>
+  <si>
     <t>농장닭집</t>
   </si>
   <si>
@@ -386,12 +374,6 @@
   </si>
   <si>
     <t>IMG_0349.jpeg</t>
-  </si>
-  <si>
-    <t>하나타운 501 우편함</t>
-  </si>
-  <si>
-    <t>IMG_0122.jpg</t>
   </si>
   <si>
     <t>660-13 2층</t>
@@ -1762,7 +1744,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2227,21 +2209,21 @@
       </c>
     </row>
     <row r="30" ht="13.65" customHeight="1">
-      <c r="A30" t="s" s="6">
+      <c r="A30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C30" t="s" s="6">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s" s="6">
+      <c r="C30" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" ht="13.65" customHeight="1">
+    <row r="31" ht="15" customHeight="1">
       <c r="A31" t="s" s="2">
         <v>73</v>
       </c>
@@ -2249,14 +2231,14 @@
         <v>9</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" ht="13.65" customHeight="1">
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" ht="15" customHeight="1">
       <c r="A32" t="s" s="2">
         <v>75</v>
       </c>
@@ -2269,9 +2251,9 @@
       <c r="D32" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" ht="15" customHeight="1">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" ht="11.7" customHeight="1">
       <c r="A33" t="s" s="2">
         <v>77</v>
       </c>
@@ -2279,63 +2261,67 @@
         <v>9</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" ht="15" customHeight="1">
+      <c r="E33" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" ht="11.7" customHeight="1">
       <c r="A34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>9</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" ht="15" customHeight="1">
+        <v>81</v>
+      </c>
+      <c r="E34" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" ht="11.7" customHeight="1">
       <c r="A35" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>9</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" ht="11.7" customHeight="1">
+        <v>84</v>
+      </c>
+      <c r="E35" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" ht="13.65" customHeight="1">
       <c r="A36" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>9</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="E36" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" ht="11.7" customHeight="1">
       <c r="A37" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>9</v>
@@ -2344,15 +2330,15 @@
         <v>6</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" ht="11.7" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1">
       <c r="A38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>9</v>
@@ -2361,13 +2347,11 @@
         <v>4</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="E38" t="s" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" ht="13.65" customHeight="1">
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" ht="11.7" customHeight="1">
       <c r="A39" t="s" s="2">
         <v>92</v>
       </c>
@@ -2380,55 +2364,57 @@
       <c r="D39" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" ht="11.7" customHeight="1">
+      <c r="E39" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" ht="13.65" customHeight="1">
       <c r="A40" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>9</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="E40" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" ht="11.7" customHeight="1">
+      <c r="A41" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" ht="13.65" customHeight="1">
+      <c r="A42" t="s" s="6">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s" s="6">
+        <v>100</v>
+      </c>
+      <c r="E42" t="s" s="6">
         <v>15</v>
-      </c>
-    </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" ht="11.7" customHeight="1">
-      <c r="A42" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="E42" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="43" ht="13.65" customHeight="1">
@@ -2439,14 +2425,14 @@
         <v>9</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>102</v>
       </c>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" ht="11.7" customHeight="1">
+    <row r="44" ht="13.65" customHeight="1">
       <c r="A44" t="s" s="2">
         <v>103</v>
       </c>
@@ -2459,26 +2445,22 @@
       <c r="D44" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="E44" t="s" s="2">
-        <v>7</v>
-      </c>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" ht="13.65" customHeight="1">
-      <c r="A45" t="s" s="6">
+      <c r="A45" t="s" s="2">
         <v>105</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C45" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s" s="6">
+      <c r="C45" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="E45" t="s" s="6">
-        <v>15</v>
-      </c>
+      <c r="D45" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" ht="13.65" customHeight="1">
       <c r="A46" t="s" s="2">
@@ -2488,14 +2470,14 @@
         <v>9</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>108</v>
       </c>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" ht="13.65" customHeight="1">
+    <row r="47" ht="11.7" customHeight="1">
       <c r="A47" t="s" s="2">
         <v>109</v>
       </c>
@@ -2503,46 +2485,48 @@
         <v>9</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" ht="13.65" customHeight="1">
+        <v>111</v>
+      </c>
+      <c r="E47" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" ht="11.7" customHeight="1">
       <c r="A48" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>9</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" ht="11.7" customHeight="1">
+        <v>114</v>
+      </c>
+      <c r="E48" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1">
       <c r="A49" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>9</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="E49" t="s" s="2">
         <v>116</v>
       </c>
-    </row>
-    <row r="50" ht="11.7" customHeight="1">
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" ht="15" customHeight="1">
       <c r="A50" t="s" s="2">
         <v>117</v>
       </c>
@@ -2555,11 +2539,9 @@
       <c r="D50" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="E50" t="s" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" ht="15" customHeight="1">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" ht="11.7" customHeight="1">
       <c r="A51" t="s" s="2">
         <v>119</v>
       </c>
@@ -2567,12 +2549,14 @@
         <v>9</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="E51" s="3"/>
+      <c r="E51" t="s" s="2">
+        <v>85</v>
+      </c>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="s" s="2">
@@ -2589,7 +2573,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" ht="11.7" customHeight="1">
+    <row r="53" ht="13.65" customHeight="1">
       <c r="A53" t="s" s="2">
         <v>123</v>
       </c>
@@ -2597,16 +2581,14 @@
         <v>9</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="E53" t="s" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" ht="15" customHeight="1">
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" ht="13.65" customHeight="1">
       <c r="A54" t="s" s="2">
         <v>125</v>
       </c>
@@ -2614,14 +2596,14 @@
         <v>9</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" ht="15" customHeight="1">
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" ht="11.7" customHeight="1">
       <c r="A55" t="s" s="2">
         <v>127</v>
       </c>
@@ -2634,98 +2616,100 @@
       <c r="D55" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="E55" s="3"/>
+      <c r="E55" t="s" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="56" ht="13.65" customHeight="1">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="6">
         <v>129</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s" s="6">
         <v>130</v>
       </c>
-      <c r="E56" s="4"/>
+      <c r="E56" t="s" s="6">
+        <v>131</v>
+      </c>
     </row>
     <row r="57" ht="13.65" customHeight="1">
-      <c r="A57" t="s" s="2">
-        <v>131</v>
+      <c r="A57" t="s" s="6">
+        <v>132</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s" s="6">
+        <v>133</v>
+      </c>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" ht="13.65" customHeight="1">
+      <c r="A58" t="s" s="6">
+        <v>134</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D57" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" ht="11.7" customHeight="1">
-      <c r="A58" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="D58" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="E58" t="s" s="2">
+      <c r="D58" t="s" s="6">
+        <v>135</v>
+      </c>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" ht="13.65" customHeight="1">
+      <c r="A59" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" ht="11.7" customHeight="1">
+      <c r="A60" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E60" t="s" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="59" ht="13.65" customHeight="1">
-      <c r="A59" t="s" s="6">
-        <v>135</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="C59" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D59" t="s" s="6">
-        <v>136</v>
-      </c>
-      <c r="E59" t="s" s="6">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="60" ht="13.65" customHeight="1">
-      <c r="A60" t="s" s="6">
-        <v>138</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="C60" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="D60" t="s" s="6">
-        <v>139</v>
-      </c>
-      <c r="E60" s="4"/>
-    </row>
     <row r="61" ht="13.65" customHeight="1">
-      <c r="A61" t="s" s="6">
+      <c r="A61" t="s" s="2">
         <v>140</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C61" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D61" t="s" s="6">
+      <c r="C61" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s" s="2">
         <v>141</v>
       </c>
       <c r="E61" s="4"/>
@@ -2738,16 +2722,16 @@
         <v>9</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" ht="11.7" customHeight="1">
+    <row r="63" ht="13.65" customHeight="1">
       <c r="A63" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>9</v>
@@ -2756,36 +2740,34 @@
         <v>4</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="E63" t="s" s="2">
-        <v>15</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="E63" s="4"/>
     </row>
     <row r="64" ht="13.65" customHeight="1">
       <c r="A64" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>9</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E64" s="4"/>
     </row>
     <row r="65" ht="13.65" customHeight="1">
       <c r="A65" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>9</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>150</v>
@@ -2797,49 +2779,43 @@
         <v>151</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="D66" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="D66" s="4"/>
       <c r="E66" s="4"/>
     </row>
     <row r="67" ht="13.65" customHeight="1">
       <c r="A67" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="D67" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" ht="13.65" customHeight="1">
       <c r="A68" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="D68" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="D68" s="4"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" ht="13.65" customHeight="1">
       <c r="A69" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>1</v>
@@ -2852,7 +2828,7 @@
     </row>
     <row r="70" ht="13.65" customHeight="1">
       <c r="A70" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>1</v>
@@ -2865,7 +2841,7 @@
     </row>
     <row r="71" ht="13.65" customHeight="1">
       <c r="A71" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>1</v>
@@ -2878,7 +2854,7 @@
     </row>
     <row r="72" ht="13.65" customHeight="1">
       <c r="A72" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>1</v>
@@ -2890,60 +2866,60 @@
       <c r="E72" s="4"/>
     </row>
     <row r="73" ht="13.65" customHeight="1">
-      <c r="A73" t="s" s="2">
-        <v>161</v>
+      <c r="A73" t="s" s="6">
+        <v>158</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>6</v>
+      <c r="C73" t="s" s="6">
+        <v>4</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
     </row>
     <row r="74" ht="13.65" customHeight="1">
       <c r="A74" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
     </row>
     <row r="75" ht="13.65" customHeight="1">
       <c r="A75" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
     </row>
     <row r="76" ht="13.65" customHeight="1">
-      <c r="A76" t="s" s="6">
-        <v>164</v>
+      <c r="A76" t="s" s="2">
+        <v>161</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C76" t="s" s="6">
-        <v>4</v>
+      <c r="C76" t="s" s="2">
+        <v>6</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
     </row>
     <row r="77" ht="13.65" customHeight="1">
       <c r="A77" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>1</v>
@@ -2956,46 +2932,46 @@
     </row>
     <row r="78" ht="13.65" customHeight="1">
       <c r="A78" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
     </row>
     <row r="79" ht="13.65" customHeight="1">
       <c r="A79" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
     </row>
     <row r="80" ht="13.65" customHeight="1">
       <c r="A80" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
     </row>
     <row r="81" ht="13.65" customHeight="1">
       <c r="A81" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>1</v>
@@ -3008,20 +2984,20 @@
     </row>
     <row r="82" ht="13.65" customHeight="1">
       <c r="A82" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
     </row>
     <row r="83" ht="13.65" customHeight="1">
       <c r="A83" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>1</v>
@@ -3034,7 +3010,7 @@
     </row>
     <row r="84" ht="13.65" customHeight="1">
       <c r="A84" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>1</v>
@@ -3047,7 +3023,7 @@
     </row>
     <row r="85" ht="13.65" customHeight="1">
       <c r="A85" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>1</v>
@@ -3060,51 +3036,51 @@
     </row>
     <row r="86" ht="13.65" customHeight="1">
       <c r="A86" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
     </row>
     <row r="87" ht="13.65" customHeight="1">
       <c r="A87" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" ht="13.65" customHeight="1">
       <c r="A88" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
     </row>
     <row r="89" ht="13.65" customHeight="1">
-      <c r="A89" t="s" s="2">
-        <v>177</v>
+      <c r="A89" t="s" s="6">
+        <v>174</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="6">
         <v>6</v>
       </c>
       <c r="D89" s="4"/>
@@ -3112,38 +3088,38 @@
     </row>
     <row r="90" ht="13.65" customHeight="1">
       <c r="A90" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
     </row>
     <row r="91" ht="13.65" customHeight="1">
       <c r="A91" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
     </row>
     <row r="92" ht="13.65" customHeight="1">
-      <c r="A92" t="s" s="6">
-        <v>180</v>
+      <c r="A92" t="s" s="2">
+        <v>177</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C92" t="s" s="6">
+      <c r="C92" t="s" s="2">
         <v>6</v>
       </c>
       <c r="D92" s="4"/>
@@ -3151,7 +3127,7 @@
     </row>
     <row r="93" ht="13.65" customHeight="1">
       <c r="A93" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>1</v>
@@ -3164,33 +3140,33 @@
     </row>
     <row r="94" ht="13.65" customHeight="1">
       <c r="A94" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
     </row>
     <row r="95" ht="13.65" customHeight="1">
       <c r="A95" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
     </row>
     <row r="96" ht="13.65" customHeight="1">
       <c r="A96" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>1</v>
@@ -3203,7 +3179,7 @@
     </row>
     <row r="97" ht="13.65" customHeight="1">
       <c r="A97" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>1</v>
@@ -3213,45 +3189,6 @@
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
-    </row>
-    <row r="98" ht="13.65" customHeight="1">
-      <c r="A98" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" ht="13.65" customHeight="1">
-      <c r="A99" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" ht="13.65" customHeight="1">
-      <c r="A100" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
